--- a/Data/RawData/YPE_Data/YPE_74/Digital Data_YPE74/YPE_Understory_Plot_74.xlsx
+++ b/Data/RawData/YPE_Data/YPE_74/Digital Data_YPE74/YPE_Understory_Plot_74.xlsx
@@ -9,14 +9,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="3ipHjpuvdm5/ZKTURIROAWEh+G9Ps8nED4ksvROzEFI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId5" roundtripDataChecksum="9Ne6QDgadJATAb213EJ6rgxT3kvG+pLwDLnGDpxMeAg="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1199" uniqueCount="46">
   <si>
     <t>plotID</t>
   </si>
@@ -108,13 +108,13 @@
     <t>Streptanthus tortuosus</t>
   </si>
   <si>
-    <t>forbe_unknown</t>
+    <t>forb_YPE74</t>
   </si>
   <si>
-    <t>agrostis</t>
+    <t>Agrostis_sp</t>
   </si>
   <si>
-    <t>GATR</t>
+    <t>Galium_1</t>
   </si>
   <si>
     <t>QUCH_seed</t>
@@ -126,16 +126,16 @@
     <t>QUKE_seed</t>
   </si>
   <si>
-    <t>LULE</t>
+    <t>Lupinus_1</t>
   </si>
   <si>
-    <t>senecio</t>
+    <t>Asteraceae_1</t>
   </si>
   <si>
     <t>PILA_seed</t>
   </si>
   <si>
-    <t>IRTE</t>
+    <t>Iris_1</t>
   </si>
   <si>
     <t>litter</t>
@@ -145,9 +145,6 @@
   </si>
   <si>
     <t>PIPO</t>
-  </si>
-  <si>
-    <t>forb_unknown</t>
   </si>
   <si>
     <t>dirt</t>
@@ -1452,7 +1449,7 @@
         <v>29</v>
       </c>
       <c r="Q13" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R13" s="4" t="s">
         <v>31</v>
@@ -1502,7 +1499,7 @@
         <v>40</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H14" s="4" t="s">
         <v>26</v>
@@ -1532,7 +1529,7 @@
         <v>29</v>
       </c>
       <c r="Q14" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R14" s="4" t="s">
         <v>31</v>
@@ -1582,7 +1579,7 @@
         <v>40</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>26</v>
@@ -1612,7 +1609,7 @@
         <v>29</v>
       </c>
       <c r="Q15" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R15" s="4" t="s">
         <v>31</v>
@@ -1692,7 +1689,7 @@
         <v>29</v>
       </c>
       <c r="Q16" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R16" s="4" t="s">
         <v>31</v>
@@ -1742,7 +1739,7 @@
         <v>40</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H17" s="4" t="s">
         <v>26</v>
@@ -1772,7 +1769,7 @@
         <v>29</v>
       </c>
       <c r="Q17" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R17" s="4" t="s">
         <v>31</v>
@@ -1852,7 +1849,7 @@
         <v>29</v>
       </c>
       <c r="Q18" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R18" s="4" t="s">
         <v>31</v>
@@ -1902,7 +1899,7 @@
         <v>40</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H19" s="4" t="s">
         <v>26</v>
@@ -1932,7 +1929,7 @@
         <v>29</v>
       </c>
       <c r="Q19" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R19" s="4" t="s">
         <v>31</v>
@@ -1982,7 +1979,7 @@
         <v>40</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H20" s="4" t="s">
         <v>26</v>
@@ -2012,7 +2009,7 @@
         <v>29</v>
       </c>
       <c r="Q20" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R20" s="4" t="s">
         <v>31</v>
@@ -2092,7 +2089,7 @@
         <v>29</v>
       </c>
       <c r="Q21" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R21" s="4" t="s">
         <v>31</v>
@@ -2172,7 +2169,7 @@
         <v>29</v>
       </c>
       <c r="Q22" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R22" s="4" t="s">
         <v>31</v>
@@ -2252,7 +2249,7 @@
         <v>29</v>
       </c>
       <c r="Q23" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R23" s="4" t="s">
         <v>31</v>
@@ -2299,10 +2296,10 @@
         <v>22.0</v>
       </c>
       <c r="F24" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G24" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H24" s="4" t="s">
         <v>40</v>
@@ -2332,7 +2329,7 @@
         <v>29</v>
       </c>
       <c r="Q24" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R24" s="4" t="s">
         <v>31</v>
@@ -2379,10 +2376,10 @@
         <v>23.0</v>
       </c>
       <c r="F25" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G25" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>40</v>
@@ -2412,7 +2409,7 @@
         <v>29</v>
       </c>
       <c r="Q25" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R25" s="4" t="s">
         <v>31</v>
@@ -2459,10 +2456,10 @@
         <v>24.0</v>
       </c>
       <c r="F26" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G26" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="H26" s="4" t="s">
         <v>28</v>
@@ -2492,7 +2489,7 @@
         <v>29</v>
       </c>
       <c r="Q26" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R26" s="4" t="s">
         <v>31</v>
@@ -2572,7 +2569,7 @@
         <v>29</v>
       </c>
       <c r="Q27" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R27" s="4" t="s">
         <v>31</v>
@@ -2652,7 +2649,7 @@
         <v>29</v>
       </c>
       <c r="Q28" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R28" s="4" t="s">
         <v>31</v>
@@ -2699,7 +2696,7 @@
         <v>27.0</v>
       </c>
       <c r="F29" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G29" s="4" t="s">
         <v>40</v>
@@ -2732,7 +2729,7 @@
         <v>29</v>
       </c>
       <c r="Q29" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R29" s="4" t="s">
         <v>31</v>
@@ -2812,7 +2809,7 @@
         <v>29</v>
       </c>
       <c r="Q30" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R30" s="4" t="s">
         <v>31</v>
@@ -2892,7 +2889,7 @@
         <v>29</v>
       </c>
       <c r="Q31" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R31" s="4" t="s">
         <v>31</v>
@@ -2972,7 +2969,7 @@
         <v>29</v>
       </c>
       <c r="Q32" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R32" s="4" t="s">
         <v>31</v>
@@ -3052,7 +3049,7 @@
         <v>29</v>
       </c>
       <c r="Q33" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R33" s="4" t="s">
         <v>31</v>
@@ -3132,7 +3129,7 @@
         <v>29</v>
       </c>
       <c r="Q34" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R34" s="4" t="s">
         <v>31</v>
@@ -3212,7 +3209,7 @@
         <v>29</v>
       </c>
       <c r="Q35" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R35" s="4" t="s">
         <v>31</v>
@@ -3292,7 +3289,7 @@
         <v>29</v>
       </c>
       <c r="Q36" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R36" s="4" t="s">
         <v>31</v>
@@ -3372,7 +3369,7 @@
         <v>29</v>
       </c>
       <c r="Q37" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R37" s="4" t="s">
         <v>31</v>
@@ -3452,7 +3449,7 @@
         <v>29</v>
       </c>
       <c r="Q38" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R38" s="4" t="s">
         <v>31</v>
@@ -3499,7 +3496,7 @@
         <v>37.0</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>40</v>
@@ -3532,7 +3529,7 @@
         <v>29</v>
       </c>
       <c r="Q39" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R39" s="4" t="s">
         <v>31</v>
@@ -3579,13 +3576,13 @@
         <v>38.0</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G40" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>40</v>
@@ -3612,7 +3609,7 @@
         <v>29</v>
       </c>
       <c r="Q40" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R40" s="4" t="s">
         <v>31</v>
@@ -3692,7 +3689,7 @@
         <v>29</v>
       </c>
       <c r="Q41" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R41" s="4" t="s">
         <v>31</v>
@@ -3742,7 +3739,7 @@
         <v>40</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H42" s="4" t="s">
         <v>26</v>
@@ -3772,7 +3769,7 @@
         <v>29</v>
       </c>
       <c r="Q42" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R42" s="4" t="s">
         <v>31</v>
@@ -3852,7 +3849,7 @@
         <v>29</v>
       </c>
       <c r="Q43" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R43" s="4" t="s">
         <v>31</v>
@@ -3932,7 +3929,7 @@
         <v>29</v>
       </c>
       <c r="Q44" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R44" s="4" t="s">
         <v>31</v>
@@ -4012,7 +4009,7 @@
         <v>29</v>
       </c>
       <c r="Q45" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R45" s="4" t="s">
         <v>31</v>
@@ -4092,7 +4089,7 @@
         <v>29</v>
       </c>
       <c r="Q46" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R46" s="4" t="s">
         <v>31</v>
@@ -4139,7 +4136,7 @@
         <v>45.0</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G47" s="4" t="s">
         <v>26</v>
@@ -4172,7 +4169,7 @@
         <v>29</v>
       </c>
       <c r="Q47" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R47" s="4" t="s">
         <v>31</v>
@@ -4252,7 +4249,7 @@
         <v>29</v>
       </c>
       <c r="Q48" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R48" s="4" t="s">
         <v>31</v>
@@ -4332,7 +4329,7 @@
         <v>29</v>
       </c>
       <c r="Q49" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R49" s="4" t="s">
         <v>31</v>
@@ -4412,7 +4409,7 @@
         <v>29</v>
       </c>
       <c r="Q50" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R50" s="4" t="s">
         <v>31</v>
@@ -4492,7 +4489,7 @@
         <v>29</v>
       </c>
       <c r="Q51" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R51" s="4" t="s">
         <v>31</v>
@@ -4572,7 +4569,7 @@
         <v>29</v>
       </c>
       <c r="Q52" s="4" t="s">
-        <v>43</v>
+        <v>30</v>
       </c>
       <c r="R52" s="4" t="s">
         <v>31</v>
